--- a/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36000</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25736</v>
+        <v>26336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47452</v>
+        <v>47375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09646518924987348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0689619301118304</v>
+        <v>0.07057113105437891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1271526896138959</v>
+        <v>0.126947378094374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>82286</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66129</v>
+        <v>66770</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99004</v>
+        <v>100717</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.140001476136672</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1125126794214369</v>
+        <v>0.113602430803178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1684453509641193</v>
+        <v>0.1713601623140565</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -786,19 +786,19 @@
         <v>118285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99110</v>
+        <v>98038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141049</v>
+        <v>140042</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1230937723269941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1031387629952788</v>
+        <v>0.1020236142183312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1467821388363076</v>
+        <v>0.1457348127918619</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>337189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>325737</v>
+        <v>325814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>347453</v>
+        <v>346853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9035348107501265</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8728473103861042</v>
+        <v>0.873052621905626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9310380698881697</v>
+        <v>0.9294288689456213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>499</v>
@@ -836,19 +836,19 @@
         <v>505463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>488745</v>
+        <v>487032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>521620</v>
+        <v>520979</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.859998523863328</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8315546490358807</v>
+        <v>0.8286398376859434</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8874873205785631</v>
+        <v>0.886397569196822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>859</v>
@@ -857,19 +857,19 @@
         <v>842653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>819889</v>
+        <v>820896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>861828</v>
+        <v>862900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.876906227673006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8532178611636924</v>
+        <v>0.8542651872081382</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8968612370047213</v>
+        <v>0.8979763857816688</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>2447</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7298</v>
+        <v>6591</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02777983799046684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008961664981493062</v>
+        <v>0.00880162402669382</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08285560210370943</v>
+        <v>0.07482199085181554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2096</v>
+        <v>1982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11743</v>
+        <v>11325</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08758304630285857</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03368543658382542</v>
+        <v>0.03185618232999683</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.188760857145073</v>
+        <v>0.1820462639112066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1003,19 +1003,19 @@
         <v>7896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3551</v>
+        <v>3787</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13996</v>
+        <v>14834</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05253432472618169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02362643041277451</v>
+        <v>0.02519505894084372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09312078460206318</v>
+        <v>0.09870250470814527</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>85636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80785</v>
+        <v>81492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87294</v>
+        <v>87308</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9722201620095332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9171443978962918</v>
+        <v>0.925178009148185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910383350185069</v>
+        <v>0.9911983759733062</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -1053,19 +1053,19 @@
         <v>56763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50469</v>
+        <v>50887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60116</v>
+        <v>60230</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9124169536971414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.811239142854927</v>
+        <v>0.8179537360887934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9663145634161746</v>
+        <v>0.9681438176700032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>141</v>
@@ -1074,19 +1074,19 @@
         <v>142399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136299</v>
+        <v>135461</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>146744</v>
+        <v>146508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9474656752738183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9068792153979368</v>
+        <v>0.9012974952918545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9763735695872254</v>
+        <v>0.9748049410591562</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8383</v>
+        <v>6260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03529703754989125</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2034904266051896</v>
+        <v>0.1519741386368814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1202,16 +1202,16 @@
         <v>930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8206</v>
+        <v>8015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1250157479803094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03460435684024417</v>
+        <v>0.03460613644855891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3052692527715092</v>
+        <v>0.2981793890241273</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1220,19 +1220,19 @@
         <v>4815</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10921</v>
+        <v>11270</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07072422912078254</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01860888696094955</v>
+        <v>0.01847510815975809</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1604249116905632</v>
+        <v>0.1655539545815821</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>39740</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32811</v>
+        <v>34934</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>41194</v>
@@ -1258,7 +1258,7 @@
         <v>0.9647029624501088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7965095733948128</v>
+        <v>0.8480258613631185</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>23520</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18675</v>
+        <v>18866</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>25951</v>
@@ -1279,10 +1279,10 @@
         <v>0.8749842520196907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6947307472284907</v>
+        <v>0.7018206109758723</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9653956431597558</v>
+        <v>0.9653938635514412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -1291,19 +1291,19 @@
         <v>63260</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57154</v>
+        <v>56805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66808</v>
+        <v>66817</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9292757708792174</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8395750883094366</v>
+        <v>0.8344460454184174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9813911130390505</v>
+        <v>0.9815248918402419</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>39901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07940976007269224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1416,19 +1416,19 @@
         <v>91095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1345882867724461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -1437,19 +1437,19 @@
         <v>130996</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1110784540414075</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>462565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>449814</v>
+        <v>448530</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>472593</v>
+        <v>471304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9205902399273078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8952126492366392</v>
+        <v>0.8926571718280908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9405466229796545</v>
+        <v>0.9379822228743845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>578</v>
@@ -1487,19 +1487,19 @@
         <v>585747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>564887</v>
+        <v>565643</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>603010</v>
+        <v>601344</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8654117132275538</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8345923575381898</v>
+        <v>0.8357088243124026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8909174410347418</v>
+        <v>0.8884559552910377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1058</v>
@@ -1508,19 +1508,19 @@
         <v>1048312</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1023871</v>
+        <v>1026149</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1067352</v>
+        <v>1068877</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8889215459585925</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8681964241549595</v>
+        <v>0.8701284973651543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9050661322027396</v>
+        <v>0.9063595793364043</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>74446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58013</v>
+        <v>57342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91851</v>
+        <v>91265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1796489512853184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1399934241225452</v>
+        <v>0.138374073751088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2216498459307627</v>
+        <v>0.2202357295195118</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>158</v>
@@ -1872,19 +1872,19 @@
         <v>173247</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>150616</v>
+        <v>150716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197511</v>
+        <v>196636</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.273026296758302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2373603353998457</v>
+        <v>0.2375182030354356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3112639369684532</v>
+        <v>0.3098851808534804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>221</v>
@@ -1893,19 +1893,19 @@
         <v>247693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>218366</v>
+        <v>218923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>276546</v>
+        <v>277208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.236136413276745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2081769954924286</v>
+        <v>0.2087082699294443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2636428813993171</v>
+        <v>0.26427345638552</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>339952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322547</v>
+        <v>323133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>356385</v>
+        <v>357056</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8203510487146817</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7783501540692372</v>
+        <v>0.7797642704804881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8600065758774548</v>
+        <v>0.861625926248912</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>438</v>
@@ -1943,19 +1943,19 @@
         <v>461298</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>437034</v>
+        <v>437909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>483929</v>
+        <v>483829</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.726973703241698</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6887360630315468</v>
+        <v>0.6901148191465196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7626396646001546</v>
+        <v>0.7624817969645644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>753</v>
@@ -1964,19 +1964,19 @@
         <v>801249</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>772396</v>
+        <v>771734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>830576</v>
+        <v>830019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7638635867232549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7363571186006839</v>
+        <v>0.7357265436144803</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.791823004507572</v>
+        <v>0.7912917300705559</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>8103</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4010</v>
+        <v>3910</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15549</v>
+        <v>16107</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06828786250505098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03379582623207192</v>
+        <v>0.03295397269350332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1310318426103735</v>
+        <v>0.135733663479951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2089,19 +2089,19 @@
         <v>12778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7125</v>
+        <v>7359</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21119</v>
+        <v>21111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1538133102294374</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08576319742187775</v>
+        <v>0.08858410088543368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2542146032808253</v>
+        <v>0.2541235644272649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -2110,19 +2110,19 @@
         <v>20881</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13054</v>
+        <v>13093</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30593</v>
+        <v>31629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.103506491926148</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06470497573150283</v>
+        <v>0.06490100238282337</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1516456627507915</v>
+        <v>0.1567797810126546</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>110562</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>103116</v>
+        <v>102558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114655</v>
+        <v>114755</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9317121374949491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8689681573896265</v>
+        <v>0.8642663365200498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.966204173767928</v>
+        <v>0.9670460273064968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -2160,19 +2160,19 @@
         <v>70296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61955</v>
+        <v>61963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>75949</v>
+        <v>75715</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8461866897705626</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.745785396719175</v>
+        <v>0.7458764355727352</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9142368025781223</v>
+        <v>0.9114158991145664</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>162</v>
@@ -2181,19 +2181,19 @@
         <v>180858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>171146</v>
+        <v>170110</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>188685</v>
+        <v>188646</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.896493508073852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8483543372492085</v>
+        <v>0.8432202189873454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9352950242684972</v>
+        <v>0.9350989976171765</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2306,19 +2306,19 @@
         <v>3315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8015</v>
+        <v>8145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1489954815624129</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04350604454880208</v>
+        <v>0.04494968908933143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3603101526877457</v>
+        <v>0.3661207559904662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -2327,19 +2327,19 @@
         <v>4300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1065</v>
+        <v>1113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9847</v>
+        <v>10416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08808039865375146</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02180544985399555</v>
+        <v>0.02278942937981336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.201700486624488</v>
+        <v>0.2133461640407375</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>25589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22156</v>
+        <v>22119</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>26575</v>
@@ -2365,7 +2365,7 @@
         <v>0.9629124886789527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.833714616860921</v>
+        <v>0.8323388717765167</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>18931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -2398,19 +2398,19 @@
         <v>44521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38974</v>
+        <v>38405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47756</v>
+        <v>47708</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9119196013462485</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7982995133755121</v>
+        <v>0.7866538359592635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9781945501460044</v>
+        <v>0.9772105706201866</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>83535</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1492664998936019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>173</v>
@@ -2523,19 +2523,19 @@
         <v>189340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161828</v>
+        <v>165925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>213046</v>
+        <v>213176</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2559113708647367</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2187258268507809</v>
+        <v>0.2242637541276062</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2879531675175408</v>
+        <v>0.2881286859899517</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>245</v>
@@ -2544,19 +2544,19 @@
         <v>272875</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243124</v>
+        <v>243090</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>305635</v>
+        <v>304591</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2099842232650005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1870897688803449</v>
+        <v>0.1870638810913432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2351939763676617</v>
+        <v>0.2343905528890221</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>476102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456910</v>
+        <v>456653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>492779</v>
+        <v>492602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8507335001063981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8164405996656411</v>
+        <v>0.8159799625183749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8805338025433268</v>
+        <v>0.8802165718382683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>518</v>
@@ -2594,19 +2594,19 @@
         <v>550525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>526819</v>
+        <v>526689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>578037</v>
+        <v>573940</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7440886291352633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7120468324824593</v>
+        <v>0.7118713140100483</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7812741731492192</v>
+        <v>0.7757362458723939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>950</v>
@@ -2615,19 +2615,19 @@
         <v>1026627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>993867</v>
+        <v>994911</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1056378</v>
+        <v>1056412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7900157767349995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7648060236323383</v>
+        <v>0.7656094471109777</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8129102311196551</v>
+        <v>0.8129361189086566</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>56282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44261</v>
+        <v>43991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69448</v>
+        <v>69938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1590321859235083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1250665201675858</v>
+        <v>0.1243044174008446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1962357892128201</v>
+        <v>0.1976190798618288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -2979,19 +2979,19 @@
         <v>141936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119176</v>
+        <v>121585</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164587</v>
+        <v>165475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2558523608044435</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2148248743634986</v>
+        <v>0.2191686003591</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.296683915745101</v>
+        <v>0.2982831340081721</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -3000,19 +3000,19 @@
         <v>198218</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172330</v>
+        <v>175531</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225171</v>
+        <v>224550</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2181431341258737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1896530997403414</v>
+        <v>0.1931763936884613</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2478058961664546</v>
+        <v>0.2471229535205868</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>297619</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284453</v>
+        <v>283963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309640</v>
+        <v>309910</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8409678140764917</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8037642107871801</v>
+        <v>0.8023809201381717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8749334798324145</v>
+        <v>0.8756955825991554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>359</v>
@@ -3050,19 +3050,19 @@
         <v>412821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390170</v>
+        <v>389282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>435581</v>
+        <v>433172</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7441476391955566</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7033160842548988</v>
+        <v>0.7017168659918279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7851751256365014</v>
+        <v>0.7808313996408999</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>683</v>
@@ -3071,19 +3071,19 @@
         <v>710440</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>683487</v>
+        <v>684108</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>736328</v>
+        <v>733127</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7818568658741263</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7521941038335453</v>
+        <v>0.7528770464794132</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8103469002596586</v>
+        <v>0.8068236063115387</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>10640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5678</v>
+        <v>6068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18253</v>
+        <v>17794</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05526297508008948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02948938721937904</v>
+        <v>0.03151878682417379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09480526506745329</v>
+        <v>0.09242149913269593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3196,19 +3196,19 @@
         <v>25438</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15317</v>
+        <v>16490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37401</v>
+        <v>39056</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.135252650810539</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08143998381202858</v>
+        <v>0.08767870154590363</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1988617943071473</v>
+        <v>0.2076641750291164</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -3217,19 +3217,19 @@
         <v>36077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25948</v>
+        <v>25559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49688</v>
+        <v>49914</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09478935817928996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06817498397943561</v>
+        <v>0.06715409631352694</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1305500113514499</v>
+        <v>0.1311447853272152</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>181892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174279</v>
+        <v>174738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>186854</v>
+        <v>186464</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9447370249199105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9051947349325468</v>
+        <v>0.9075785008673043</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.970510612780621</v>
+        <v>0.9684812131758265</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -3267,19 +3267,19 @@
         <v>162636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>150673</v>
+        <v>149018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172757</v>
+        <v>171584</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8647473491894609</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8011382056928528</v>
+        <v>0.7923358249708836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9185600161879715</v>
+        <v>0.9123212984540967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>322</v>
@@ -3288,19 +3288,19 @@
         <v>344529</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>330918</v>
+        <v>330692</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>354658</v>
+        <v>355047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.90521064182071</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8694499886485503</v>
+        <v>0.8688552146727851</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9318250160205643</v>
+        <v>0.9328459036864732</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>3176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8432</v>
+        <v>9377</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07557867769100363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01765172573407959</v>
+        <v>0.01842854515245596</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2006222076458206</v>
+        <v>0.2231032085997888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3434,19 +3434,19 @@
         <v>4552</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1409</v>
+        <v>1351</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13027</v>
+        <v>11082</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06013340288960536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01861807034860136</v>
+        <v>0.01784825155099044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1720824878052831</v>
+        <v>0.1463899051791543</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>38853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33597</v>
+        <v>32652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41287</v>
+        <v>41254</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9244213223089964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7993777923541785</v>
+        <v>0.7768967914002112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9823482742659204</v>
+        <v>0.981571454847544</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -3484,7 +3484,7 @@
         <v>32298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>33674</v>
@@ -3493,7 +3493,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3505,19 +3505,19 @@
         <v>71151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62676</v>
+        <v>64621</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74294</v>
+        <v>74352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9398665971103947</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8279175121947168</v>
+        <v>0.853610094820845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9813819296513987</v>
+        <v>0.9821517484490095</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>70098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55176</v>
+        <v>56480</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84838</v>
+        <v>85265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1191207613016836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09376257851319245</v>
+        <v>0.09597832850673363</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1441688049359545</v>
+        <v>0.1448937652668591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -3630,19 +3630,19 @@
         <v>168749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146249</v>
+        <v>145222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196229</v>
+        <v>196379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2173188244839379</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.188342328638622</v>
+        <v>0.1870200960208452</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2527085678257764</v>
+        <v>0.2529012608309635</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>210</v>
@@ -3651,19 +3651,19 @@
         <v>238847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211267</v>
+        <v>208197</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>270476</v>
+        <v>267927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1749838297070788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1547776665573515</v>
+        <v>0.1525289047243881</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1981556170392884</v>
+        <v>0.1962884312871007</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>518365</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>503625</v>
+        <v>503198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>533287</v>
+        <v>531983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8808792386983164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8558311950640454</v>
+        <v>0.855106234733141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9062374214868075</v>
+        <v>0.9040216714932664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>521</v>
@@ -3701,19 +3701,19 @@
         <v>607756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>580276</v>
+        <v>580126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>630256</v>
+        <v>631283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7826811755160621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7472914321742237</v>
+        <v>0.7470987391690362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8116576713613783</v>
+        <v>0.8129799039791548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1068</v>
@@ -3722,19 +3722,19 @@
         <v>1126121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1094492</v>
+        <v>1097041</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1153701</v>
+        <v>1156771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8250161702929213</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.801844382960712</v>
+        <v>0.8037115687128994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8452223334426487</v>
+        <v>0.847471095275612</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>57250</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47457</v>
+        <v>47043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68279</v>
+        <v>67759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1988296583079351</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1648167738467252</v>
+        <v>0.1633790820549116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2371325497461423</v>
+        <v>0.2353249042288108</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>304</v>
@@ -4086,19 +4086,19 @@
         <v>162297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146002</v>
+        <v>145419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177378</v>
+        <v>177454</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3045446968411671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2739668347224415</v>
+        <v>0.2728731454985863</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3328422689146099</v>
+        <v>0.3329855979950925</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>396</v>
@@ -4107,19 +4107,19 @@
         <v>219548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>200405</v>
+        <v>201383</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238463</v>
+        <v>240259</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2674623260993825</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2441417900764594</v>
+        <v>0.2453338072003628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2905057860987116</v>
+        <v>0.2926935404740272</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>230686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219657</v>
+        <v>220177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240479</v>
+        <v>240893</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8011703416920648</v>
+        <v>0.8011703416920649</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7628674502538576</v>
+        <v>0.764675095771189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8351832261532748</v>
+        <v>0.8366209179450881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>705</v>
@@ -4157,19 +4157,19 @@
         <v>370621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>355540</v>
+        <v>355464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>386916</v>
+        <v>387499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6954553031588329</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6671577310853901</v>
+        <v>0.6670144020049075</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7260331652775587</v>
+        <v>0.7271268545014137</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1038</v>
@@ -4178,19 +4178,19 @@
         <v>601306</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>582391</v>
+        <v>580595</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>620449</v>
+        <v>619471</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7325376739006175</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7094942139012884</v>
+        <v>0.7073064595259728</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7558582099235406</v>
+        <v>0.7546661927996372</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>25926</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18610</v>
+        <v>18441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36427</v>
+        <v>34481</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08533177245284089</v>
+        <v>0.0853317724528409</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06125171443529382</v>
+        <v>0.06069625286224178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1198942062513275</v>
+        <v>0.1134900152091698</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -4303,19 +4303,19 @@
         <v>36568</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29192</v>
+        <v>28581</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45673</v>
+        <v>45459</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1318720416703461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1052716543770781</v>
+        <v>0.1030694214747888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1647040186987322</v>
+        <v>0.163934281652237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -4324,19 +4324,19 @@
         <v>62494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51363</v>
+        <v>50760</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74816</v>
+        <v>75102</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1075397856986072</v>
+        <v>0.1075397856986073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08838567583618447</v>
+        <v>0.08734816067041394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1287434358057142</v>
+        <v>0.1292344612474447</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>277899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>267398</v>
+        <v>269344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>285215</v>
+        <v>285384</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9146682275471589</v>
+        <v>0.914668227547159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8801057937486739</v>
+        <v>0.8865099847908305</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9387482855647074</v>
+        <v>0.9393037471377582</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>459</v>
@@ -4374,19 +4374,19 @@
         <v>240733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>231628</v>
+        <v>231842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>248109</v>
+        <v>248720</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8681279583296538</v>
+        <v>0.8681279583296539</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8352959813012675</v>
+        <v>0.8360657183477631</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8947283456229215</v>
+        <v>0.8969305785252113</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>847</v>
@@ -4395,19 +4395,19 @@
         <v>518632</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>506310</v>
+        <v>506024</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>529763</v>
+        <v>530366</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8924602143013928</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8712565641942858</v>
+        <v>0.8707655387525555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9116143241638155</v>
+        <v>0.9126518393295859</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>6601</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3152</v>
+        <v>3040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11998</v>
+        <v>12929</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05552303994081892</v>
+        <v>0.05552303994081891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02651776390394607</v>
+        <v>0.02557317934025729</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1009226519522631</v>
+        <v>0.1087545715752535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4520,19 +4520,19 @@
         <v>5687</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2826</v>
+        <v>2859</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9790</v>
+        <v>9903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06863631663269738</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0341034516433224</v>
+        <v>0.03450162567102747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1181622573553334</v>
+        <v>0.1195273486545213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4541,19 +4541,19 @@
         <v>12287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7720</v>
+        <v>7664</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18549</v>
+        <v>18957</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06090880458744084</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03826863331849208</v>
+        <v>0.037992071762332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09194591594498072</v>
+        <v>0.0939700703671842</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>112280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106883</v>
+        <v>105952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115729</v>
+        <v>115841</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.944476960059181</v>
+        <v>0.9444769600591811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8990773480477365</v>
+        <v>0.8912454284247464</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9734822360960538</v>
+        <v>0.9744268206597426</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -4591,19 +4591,19 @@
         <v>77168</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73065</v>
+        <v>72952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80029</v>
+        <v>79996</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9313636833673028</v>
+        <v>0.9313636833673024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8818377426446666</v>
+        <v>0.8804726513454791</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9658965483566776</v>
+        <v>0.9654983743289727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>301</v>
@@ -4612,19 +4612,19 @@
         <v>189449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>183187</v>
+        <v>182779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>194016</v>
+        <v>194072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9390911954125591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9080540840550192</v>
+        <v>0.9060299296328161</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9617313666815078</v>
+        <v>0.9620079282376681</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>89777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75869</v>
+        <v>75828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107404</v>
+        <v>105992</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1263319759216652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1067603698221771</v>
+        <v>0.1067039007509038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1511359956740753</v>
+        <v>0.1491500285217531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>383</v>
@@ -4737,19 +4737,19 @@
         <v>204552</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>188063</v>
+        <v>186014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223334</v>
+        <v>222244</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2290430761575238</v>
+        <v>0.2290430761575239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2105792040477013</v>
+        <v>0.2082847497021992</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2500728862504244</v>
+        <v>0.2488524917499331</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>522</v>
@@ -4758,19 +4758,19 @@
         <v>294329</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>271139</v>
+        <v>271671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>319208</v>
+        <v>318705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1835294858195266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.16906924716739</v>
+        <v>0.1694010943660498</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1990429408589377</v>
+        <v>0.1987290624631166</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>620866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>603239</v>
+        <v>604651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>634774</v>
+        <v>634815</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8736680240783347</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8488640043259247</v>
+        <v>0.850849971478247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8932396301778229</v>
+        <v>0.8932960992490963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1306</v>
@@ -4808,19 +4808,19 @@
         <v>688522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>669740</v>
+        <v>670830</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>705011</v>
+        <v>707060</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7709569238424759</v>
+        <v>0.7709569238424762</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7499271137495759</v>
+        <v>0.7511475082500672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7894207959522987</v>
+        <v>0.791715250297801</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2186</v>
@@ -4829,19 +4829,19 @@
         <v>1309387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1284508</v>
+        <v>1285011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1332577</v>
+        <v>1332045</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8164705141804736</v>
+        <v>0.8164705141804735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8009570591410621</v>
+        <v>0.8012709375368834</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8309307528326099</v>
+        <v>0.8305989056339502</v>
       </c>
     </row>
     <row r="15">
